--- a/新版架构/新建 XLSX 工作表.xlsx
+++ b/新版架构/新建 XLSX 工作表.xlsx
@@ -172,46 +172,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +201,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +255,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +307,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -329,13 +329,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,19 +339,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,163 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,6 +544,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,148 +635,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1144,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1198,7 +1191,6 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1202,6 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1213,6 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1234,7 +1224,6 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1249,6 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1263,6 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1277,6 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1288,6 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1299,6 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1310,6 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1321,6 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1332,6 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1362,7 +1343,6 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1354,6 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1379,6 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1404,6 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1415,6 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1450,7 +1426,6 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1477,7 +1452,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/新版架构/新建 XLSX 工作表.xlsx
+++ b/新版架构/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>View item</t>
+  </si>
+  <si>
+    <t>分部</t>
   </si>
   <si>
     <t>External Link</t>
@@ -172,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,13 +186,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -215,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,14 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -261,9 +256,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,21 +304,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -329,8 +317,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,43 +342,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,139 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +590,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -588,30 +610,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +628,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,16 +659,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,116 +680,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +800,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1173,10 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1187,10 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+    <row r="3" spans="3:4">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -1198,10 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+    <row r="4" spans="3:4">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1209,10 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1220,10 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1230,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1247,9 +1244,9 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1261,9 +1258,9 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1275,9 +1272,9 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1286,7 +1283,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1295,10 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -1306,10 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
+    <row r="13" spans="3:4">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -1317,10 +1308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
+    <row r="14" spans="3:4">
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1318,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -1341,7 +1329,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1352,7 +1340,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1363,7 +1351,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -1377,7 +1365,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -1388,7 +1376,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1402,7 +1390,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1413,7 +1401,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -1424,7 +1412,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -1434,7 +1422,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B17"/>
     <mergeCell ref="B18:B19"/>
@@ -1449,514 +1438,558 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="1" max="2" width="6.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
+      <c r="B10" s="1"/>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1"/>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1"/>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1"/>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="1"/>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
+      <c r="B19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
+      <c r="B22" s="1"/>
+      <c r="D22" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="1"/>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
+      <c r="B25" s="1"/>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="1"/>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="1"/>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
+      <c r="B28" s="1"/>
+      <c r="D28" t="s">
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="1"/>
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B38"/>
+  <mergeCells count="8">
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
